--- a/data/trans_bre/P1429-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P1429-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>3.170349876092356</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6.166295724056531</v>
+        <v>6.166295724056529</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>2.413361283878747</v>
@@ -649,7 +649,7 @@
         <v>17.55683386360692</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>3.622234568422918</v>
+        <v>3.622234568422917</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>3.50946598681179</v>
+        <v>3.66670032399883</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.707382675751588</v>
+        <v>2.748774484972225</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.114607000089582</v>
+        <v>2.219889013289139</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4.208539971373153</v>
+        <v>4.221223272820486</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8134436993036085</v>
+        <v>0.9371891249594602</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>3.608103274400456</v>
+        <v>4.43553081158453</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>3.423430068635195</v>
+        <v>3.312428799562281</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>1.526601737409153</v>
+        <v>1.446760139020187</v>
       </c>
     </row>
     <row r="6">
@@ -692,24 +692,24 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.840298659320087</v>
+        <v>8.045024510982655</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.109826201143728</v>
+        <v>5.27207400871126</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.326047141392902</v>
+        <v>4.429035679693068</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.302097999968085</v>
+        <v>8.286252252221688</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>5.144087320260931</v>
+        <v>5.127417178235035</v>
       </c>
       <c r="H6" s="6" t="inlineStr"/>
       <c r="I6" s="6" t="inlineStr"/>
       <c r="J6" s="6" t="n">
-        <v>8.728120728624511</v>
+        <v>8.859149609560461</v>
       </c>
     </row>
     <row r="7">
@@ -733,7 +733,7 @@
         <v>1.876936534757713</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>3.070906054400164</v>
+        <v>3.070906054400163</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>1.350916482736671</v>
@@ -745,7 +745,7 @@
         <v>3.298900323915468</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>2.375517673413177</v>
+        <v>2.375517673413176</v>
       </c>
     </row>
     <row r="8">
@@ -756,26 +756,26 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1785712821808939</v>
+        <v>0.2320779268927258</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.571716962534631</v>
+        <v>2.596851056449125</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7772720284692717</v>
+        <v>0.8294244283095001</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.672333242322735</v>
+        <v>1.520746155568026</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.05727818823678317</v>
+        <v>0.06848052925689462</v>
       </c>
       <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="n">
-        <v>0.6049891323840421</v>
+        <v>0.5017813965649899</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.4835807285294892</v>
+        <v>0.501318349321363</v>
       </c>
     </row>
     <row r="9">
@@ -786,26 +786,26 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.26229263404764</v>
+        <v>2.266915805362402</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.938356677218763</v>
+        <v>4.842933502725523</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.192974623637849</v>
+        <v>3.093633695017148</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.168989563698049</v>
+        <v>4.167437349378913</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>4.308085705189703</v>
+        <v>4.107101632815415</v>
       </c>
       <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="n">
-        <v>13.4808280805644</v>
+        <v>11.83900026676458</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>5.974687628896793</v>
+        <v>5.707405442111074</v>
       </c>
     </row>
     <row r="10">
@@ -829,7 +829,7 @@
         <v>4.18634355996977</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3.629172249303422</v>
+        <v>3.629172249303421</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>5.892383813905493</v>
@@ -843,7 +843,7 @@
         <v>17.06126427012961</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>5.825076743782263</v>
+        <v>5.825076743782261</v>
       </c>
     </row>
     <row r="11">
@@ -854,26 +854,26 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.44099693936672</v>
+        <v>1.517604283272625</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.447032876891118</v>
+        <v>3.377170731942663</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.795755240646993</v>
+        <v>2.713353985721683</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.698944725287547</v>
+        <v>2.562703289672992</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>1.681457295204858</v>
+        <v>1.637916128206031</v>
       </c>
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="n">
-        <v>3.03855802557994</v>
+        <v>3.01082727483396</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>2.275254902861855</v>
+        <v>2.424308031944652</v>
       </c>
     </row>
     <row r="12">
@@ -884,24 +884,24 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.666039887652961</v>
+        <v>3.956872966161487</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.470309464621825</v>
+        <v>6.538490769368257</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.050734373139713</v>
+        <v>5.985164018451274</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.932447735772757</v>
+        <v>4.952249745939262</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>19.03383482611655</v>
+        <v>19.11666282434424</v>
       </c>
       <c r="H12" s="6" t="inlineStr"/>
       <c r="I12" s="6" t="inlineStr"/>
       <c r="J12" s="6" t="n">
-        <v>13.52823132585721</v>
+        <v>15.45441437880318</v>
       </c>
     </row>
     <row r="13">
@@ -948,28 +948,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7575551036201814</v>
+        <v>0.5226531742042198</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7029664365917949</v>
+        <v>0.6959208686266195</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.015421759872229</v>
+        <v>2.19768591121123</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.444182693999525</v>
+        <v>2.481498867122869</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.03324940983377778</v>
+        <v>-0.007446180343717274</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.07375296235894893</v>
+        <v>-0.0948259250899936</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1.699312620627944</v>
+        <v>1.66842423940201</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>3.950307999771741</v>
+        <v>4.737319167341408</v>
       </c>
     </row>
     <row r="15">
@@ -980,24 +980,24 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.164400996339467</v>
+        <v>5.088886089848697</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.402175841865804</v>
+        <v>4.537382972140373</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6.068443364118211</v>
+        <v>6.107395370496901</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.365555562949927</v>
+        <v>4.325667528005249</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>17.04577233128484</v>
+        <v>14.88114019098672</v>
       </c>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>60.0746187188596</v>
+        <v>56.75414552026825</v>
       </c>
     </row>
     <row r="16">
@@ -1033,7 +1033,7 @@
         <v>9.533603085262204</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>4.549223598506758</v>
+        <v>4.54922359850676</v>
       </c>
     </row>
     <row r="17">
@@ -1044,28 +1044,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.41321803211881</v>
+        <v>2.349218812242952</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.22525341727412</v>
+        <v>3.2475642177556</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.479535596605348</v>
+        <v>2.426017963418176</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.210152789802772</v>
+        <v>3.186878787582322</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>1.828388393095339</v>
+        <v>1.840579441463961</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>7.63279811698444</v>
+        <v>6.857976676561732</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>4.983912826813577</v>
+        <v>4.509344786011193</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>2.563535648083559</v>
+        <v>2.44131056036932</v>
       </c>
     </row>
     <row r="18">
@@ -1076,28 +1076,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.940215290004222</v>
+        <v>3.976579301011899</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.542824344282697</v>
+        <v>4.581755532066368</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.87497547451078</v>
+        <v>3.796179547305888</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.533403854524591</v>
+        <v>4.486181272716968</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>5.104529398648599</v>
+        <v>5.283943004769118</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>64.15170165561901</v>
+        <v>61.49334352698327</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>20.38148281512209</v>
+        <v>19.08579022453187</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>7.210173250168537</v>
+        <v>7.042636424723364</v>
       </c>
     </row>
     <row r="19">
